--- a/pythonProject2/marks.xlsx
+++ b/pythonProject2/marks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Дата</t>
   </si>
@@ -34,6 +34,9 @@
     <t>2023-11-27 18:08</t>
   </si>
   <si>
+    <t>2023-12-01 17:19</t>
+  </si>
+  <si>
     <t>2023-04-25 18:54</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>2023-11-30 15:52</t>
+  </si>
+  <si>
+    <t>2023-12-01 16:53</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,6 +458,14 @@
         <v>4</v>
       </c>
       <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>10</v>
       </c>
     </row>
@@ -478,7 +492,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -486,7 +500,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -494,7 +508,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -502,7 +516,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -515,7 +529,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +545,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -539,7 +553,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -547,7 +561,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -555,7 +569,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -563,7 +577,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -571,9 +585,17 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
         <v>10</v>
       </c>
     </row>
